--- a/Progress Report LSP.xlsx
+++ b/Progress Report LSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="0" windowWidth="19515" windowHeight="8340"/>
+    <workbookView xWindow="13200" yWindow="0" windowWidth="19515" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NO</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Selesai</t>
+  </si>
+  <si>
+    <t>Web LSP</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +518,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,35 +561,25 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -592,9 +588,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -603,10 +597,10 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="9"/>

--- a/Progress Report LSP.xlsx
+++ b/Progress Report LSP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Timeline" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>NO</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Web LSP</t>
+  </si>
+  <si>
+    <t>[Asesi] Bukti Kelengkapan</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +551,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -566,7 +567,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,10 +599,10 @@
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
-        <v>11</v>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -607,15 +610,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,7 +631,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -640,17 +645,17 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,19 +704,19 @@
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="9"/>
@@ -726,13 +731,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="18"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9"/>
@@ -740,29 +745,29 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="2"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,20 +787,20 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="9"/>
@@ -804,14 +809,14 @@
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,24 +824,31 @@
       <c r="B38" s="16"/>
       <c r="C38" s="2"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="18"/>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="17"/>
-      <c r="E40" s="14" t="e">
-        <f>AVERAGE(E2:E38)</f>
+      <c r="C40" s="2"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="E41" s="14" t="e">
+        <f>AVERAGE(E2:E39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E40"/>
+  <autoFilter ref="A1:E41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Progress Report LSP.xlsx
+++ b/Progress Report LSP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Timeline" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>NO</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>[Asesi] Bukti Kelengkapan</t>
+  </si>
+  <si>
+    <t>Versi Lama</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>- Ngonvert kodingan ke versi terbaru (List, Edit)</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -572,62 +584,70 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="21" t="s">
-        <v>11</v>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +658,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -652,17 +672,17 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -711,19 +731,19 @@
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="9"/>
@@ -738,13 +758,13 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="18"/>
       <c r="D27" s="2"/>
       <c r="E27" s="9"/>
@@ -752,29 +772,29 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="2"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,20 +814,20 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="9"/>
@@ -816,14 +836,14 @@
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,24 +851,31 @@
       <c r="B39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2"/>
       <c r="D40" s="18"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="17"/>
-      <c r="E41" s="14" t="e">
-        <f>AVERAGE(E2:E39)</f>
+      <c r="C41" s="2"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="E42" s="14" t="e">
+        <f>AVERAGE(E2:E40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41"/>
+  <autoFilter ref="A1:E42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Progress Report LSP.xlsx
+++ b/Progress Report LSP.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="0" windowWidth="19515" windowHeight="8340"/>
+    <workbookView xWindow="13200" yWindow="0" windowWidth="19515" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="4" r:id="rId1"/>
+    <sheet name="Struktur" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$E$42</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
   <si>
     <t>NO</t>
   </si>
@@ -75,19 +77,260 @@
   </si>
   <si>
     <t>- Ngonvert kodingan ke versi terbaru (List, Edit)</t>
+  </si>
+  <si>
+    <t>Controllers</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Datatables</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Berisi banyak kelas dengan masing - masing kelas menangani aliran data dari bagian Models dan Views.</t>
+  </si>
+  <si>
+    <t>M_GlobalVal, M_Query</t>
+  </si>
+  <si>
+    <t>Berisi banyak kelas dengan masing - masing kelas berfungsi memberikan list data (format datatables).</t>
+  </si>
+  <si>
+    <t>Berisi form_add dan form_edit. Form_add berfungsi untuk menginisialisasikan variabel - variabel apa saja yang nantinya akan dimasukkan kedalam database oleh kelas - kelas yang ada di sub bagian Table. Sedangkan form_edit  berfungsi untuk memetakan data dari database kedalam variabel - variabel guna ditampilkan di views.</t>
+  </si>
+  <si>
+    <t>Berisi kelas - kelas yang masing - masing kelas merepresentasikan setiap tabel yang ada di database. Masing - masing kelas tersebut memiliki fungsi get_entry, get_detail_entry, insert_entry, update_entry, dan delete_entry.</t>
+  </si>
+  <si>
+    <t>Sub Bagian (Folder)</t>
+  </si>
+  <si>
+    <t>Bagian (Folder)</t>
+  </si>
+  <si>
+    <t>Kelas (File)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alur:</t>
+  </si>
+  <si>
+    <t>UUID_MMA</t>
+  </si>
+  <si>
+    <t>UUID_USER</t>
+  </si>
+  <si>
+    <t>UUID_APL_01</t>
+  </si>
+  <si>
+    <t>UUID_APL_02</t>
+  </si>
+  <si>
+    <t>NO_DOKUMEN</t>
+  </si>
+  <si>
+    <t>KELOMPOK_TARGET</t>
+  </si>
+  <si>
+    <t>TUJUAN_ASESMEN</t>
+  </si>
+  <si>
+    <t>KONTEKS_ASESMEN</t>
+  </si>
+  <si>
+    <t>PIHAK_RELEVAN</t>
+  </si>
+  <si>
+    <t>ATURAN_LSP</t>
+  </si>
+  <si>
+    <t>ATURAN_TEKNIS</t>
+  </si>
+  <si>
+    <t>PENDEKATAN_ASESMEN</t>
+  </si>
+  <si>
+    <t>STRATEGI_ASESMEN</t>
+  </si>
+  <si>
+    <t>ACUAN_PEMBANDING</t>
+  </si>
+  <si>
+    <t>BATASAN_VARIABEL</t>
+  </si>
+  <si>
+    <t>PANDUAN_ASESMEN</t>
+  </si>
+  <si>
+    <t>PERSETUJUAN_ASESOR</t>
+  </si>
+  <si>
+    <t>PERSETUJUAN_PENYEDIA</t>
+  </si>
+  <si>
+    <t>PERSETUJUAN_TUK</t>
+  </si>
+  <si>
+    <t>TANGGAL_UJI_KOMPETENSI</t>
+  </si>
+  <si>
+    <t>DURASI_OBSERVASI_START</t>
+  </si>
+  <si>
+    <t>DURASI_OBSERVASI_END</t>
+  </si>
+  <si>
+    <t>DURASI_TES_LISAN_START</t>
+  </si>
+  <si>
+    <t>DURASI_TES_LISAN_END</t>
+  </si>
+  <si>
+    <t>LOKASI_ASESMEN</t>
+  </si>
+  <si>
+    <t>KARAKTERISTIK_PESERTA</t>
+  </si>
+  <si>
+    <t>PENYESUAIAN_KEBUTUHAN_SPESIFIK</t>
+  </si>
+  <si>
+    <t>PADA_BATASAN_VARIABEL</t>
+  </si>
+  <si>
+    <t>PADA_PANDUAN_PENILAIAN</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_1_CATATAN</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_2_CATATAN</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_3_CATATAN</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_4_CATATAN</t>
+  </si>
+  <si>
+    <t>PENGATURAN_DUKUNGAN_SPESIALIS</t>
+  </si>
+  <si>
+    <t>STRATEGI_KOMUNIKASI</t>
+  </si>
+  <si>
+    <t>KOORDINATOR_TUK</t>
+  </si>
+  <si>
+    <t>KOORDINATOR_TUK_DTM</t>
+  </si>
+  <si>
+    <t>MANAGER_SERTIFIKASI_LSP</t>
+  </si>
+  <si>
+    <t>MANAGER_SERTIFIKASI_LSP_DTM</t>
+  </si>
+  <si>
+    <t>MANAGER_TEMPAT_KERJA</t>
+  </si>
+  <si>
+    <t>MANAGER_TEMPAT_KERJA_DTM</t>
+  </si>
+  <si>
+    <t>KET_ASESOR</t>
+  </si>
+  <si>
+    <t>KET_MANAGER_SERTIFIKASI</t>
+  </si>
+  <si>
+    <t>ASESOR</t>
+  </si>
+  <si>
+    <t>MANAGER_SERTIFIKASI</t>
+  </si>
+  <si>
+    <t>UUID_ADM</t>
+  </si>
+  <si>
+    <t>USR_CRT</t>
+  </si>
+  <si>
+    <t>DTM_CRT</t>
+  </si>
+  <si>
+    <t>USR_UPD</t>
+  </si>
+  <si>
+    <t>DTM_UPD</t>
+  </si>
+  <si>
+    <t>IS_ACTIVE</t>
+  </si>
+  <si>
+    <t>$result-&gt;</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>$data[$form_name[146]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +376,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +435,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,43 +488,72 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,4 +1183,1657 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="str">
+        <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1</f>
+        <v>$data[$form_name[146]] = $result-&gt;UUID_MMA;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H55" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
+        <v>$data[$form_name[146]] = $result-&gt;UUID_USER;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;UUID_APL_01;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;UUID_APL_02;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;NO_DOKUMEN;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KELOMPOK_TARGET;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;TUJUAN_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KONTEKS_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PIHAK_RELEVAN;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;ATURAN_LSP;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;ATURAN_TEKNIS;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PENDEKATAN_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;STRATEGI_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;ACUAN_PEMBANDING;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;BATASAN_VARIABEL;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PANDUAN_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PERSETUJUAN_ASESOR;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PERSETUJUAN_PENYEDIA;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PERSETUJUAN_TUK;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;TANGGAL_UJI_KOMPETENSI;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DURASI_OBSERVASI_START;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DURASI_OBSERVASI_END;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DURASI_TES_LISAN_START;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DURASI_TES_LISAN_END;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;LOKASI_ASESMEN;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KARAKTERISTIK_PESERTA;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PENYESUAIAN_KEBUTUHAN_SPESIFIK;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PADA_BATASAN_VARIABEL;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PADA_PANDUAN_PENILAIAN;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_1;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_1_CATATAN;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_2;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_2_CATATAN;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_3;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_3_CATATAN;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_4;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;3_4_CATATAN;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;PENGATURAN_DUKUNGAN_SPESIALIS;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;STRATEGI_KOMUNIKASI;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KOORDINATOR_TUK;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KOORDINATOR_TUK_DTM;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;MANAGER_SERTIFIKASI_LSP;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;MANAGER_SERTIFIKASI_LSP_DTM;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;MANAGER_TEMPAT_KERJA;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;MANAGER_TEMPAT_KERJA_DTM;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KET_ASESOR;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;KET_MANAGER_SERTIFIKASI;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;ASESOR;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;MANAGER_SERTIFIKASI;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;UUID_ADM;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;USR_CRT;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DTM_CRT;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;USR_UPD;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;DTM_UPD;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>$data[$form_name[146]] = $result-&gt;IS_ACTIVE;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Progress Report LSP.xlsx
+++ b/Progress Report LSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="0" windowWidth="19515" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="14130" yWindow="0" windowWidth="19515" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="4" r:id="rId1"/>
@@ -535,15 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -554,6 +545,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1228,7 +1228,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1250,7 +1250,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="25" t="s">
         <v>21</v>
       </c>
@@ -1280,19 +1280,19 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1303,21 +1303,21 @@
       <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="31"/>
+      <c r="C13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1334,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H55"/>
     </sheetView>
   </sheetViews>
@@ -1349,10 +1349,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="s">
@@ -1376,10 +1376,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -1403,10 +1403,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
@@ -1430,10 +1430,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
@@ -1457,10 +1457,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1484,10 +1484,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1511,10 +1511,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
@@ -1538,10 +1538,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -1565,10 +1565,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
@@ -1592,10 +1592,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
@@ -1619,10 +1619,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
@@ -1646,10 +1646,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1673,10 +1673,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
@@ -1700,10 +1700,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
@@ -1727,10 +1727,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -1754,10 +1754,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
@@ -1781,10 +1781,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
@@ -1808,10 +1808,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
@@ -1835,10 +1835,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
@@ -1862,10 +1862,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
@@ -1889,10 +1889,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
@@ -1916,10 +1916,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
@@ -1943,10 +1943,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
@@ -1970,10 +1970,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C24" t="s">
@@ -1997,10 +1997,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
@@ -2024,10 +2024,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
@@ -2051,10 +2051,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
@@ -2078,10 +2078,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
@@ -2105,10 +2105,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
@@ -2132,10 +2132,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
@@ -2159,10 +2159,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
@@ -2186,10 +2186,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="33" t="s">
+      <c r="A32" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
@@ -2213,10 +2213,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
@@ -2240,10 +2240,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -2267,10 +2267,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
@@ -2294,10 +2294,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C36" t="s">
@@ -2321,10 +2321,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
@@ -2348,10 +2348,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C38" t="s">
@@ -2375,10 +2375,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C39" t="s">
@@ -2402,10 +2402,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C41" t="s">
@@ -2456,10 +2456,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C42" t="s">
@@ -2483,10 +2483,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C43" t="s">
@@ -2510,10 +2510,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C44" t="s">
@@ -2537,10 +2537,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="33" t="s">
+      <c r="A45" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C45" t="s">
@@ -2564,10 +2564,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C46" t="s">
@@ -2591,10 +2591,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C47" t="s">
@@ -2618,10 +2618,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="33" t="s">
+      <c r="A48" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C48" t="s">
@@ -2645,10 +2645,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C49" t="s">
@@ -2672,10 +2672,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C50" t="s">
@@ -2699,10 +2699,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="33" t="s">
+      <c r="A51" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C51" t="s">
@@ -2726,10 +2726,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C52" t="s">
@@ -2753,10 +2753,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="33" t="s">
+      <c r="A53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C53" t="s">
@@ -2780,10 +2780,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C54" t="s">
@@ -2807,10 +2807,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="33" t="s">
+      <c r="A55" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C55" t="s">
